--- a/docs/StructureDefinition-Prais.xlsx
+++ b/docs/StructureDefinition-Prais.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-10T11:42:08-04:00</t>
+    <t>2023-08-10T15:46:58-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Prais.xlsx
+++ b/docs/StructureDefinition-Prais.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-10T15:46:58-04:00</t>
+    <t>2023-09-04T11:09:02-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -146,6 +146,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -189,10 +193,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -696,7 +696,7 @@
         <v>42</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>38</v>
@@ -704,10 +704,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -718,7 +718,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -730,13 +730,13 @@
         <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -787,13 +787,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -802,15 +802,15 @@
         <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -833,13 +833,13 @@
         <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -878,19 +878,19 @@
         <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
@@ -902,7 +902,7 @@
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -921,10 +921,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
@@ -998,10 +998,10 @@
         <v>58</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
@@ -1029,7 +1029,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -1102,7 +1102,7 @@
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
@@ -1132,7 +1132,7 @@
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -1207,7 +1207,7 @@
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
